--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/IDE.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D8DD0F-3C1D-2B48-9D63-B3C8EA855435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8387A928-892B-7B4B-A2C2-1CC6EAFF9481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18420" yWindow="500" windowWidth="10000" windowHeight="16460" xr2:uid="{CA5785D0-BBB7-1147-9F58-8D49B884B13F}"/>
+    <workbookView xWindow="19740" yWindow="500" windowWidth="10000" windowHeight="16460" activeTab="1" xr2:uid="{CA5785D0-BBB7-1147-9F58-8D49B884B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="26">
   <si>
     <t>model</t>
   </si>
@@ -105,6 +106,15 @@
   </si>
   <si>
     <t>tc=8</t>
+  </si>
+  <si>
+    <t>tc=1</t>
+  </si>
+  <si>
+    <t>tc=5</t>
+  </si>
+  <si>
+    <t>tc = 1</t>
   </si>
 </sst>
 </file>
@@ -215,17 +225,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D59E498-4982-7F43-B116-3129D2812A4F}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,39 +1082,39 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C24" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="12">
-        <v>50</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="C24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
         <v>950</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="2">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="11">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C25" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="C25" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="11">
         <v>50</v>
       </c>
       <c r="E25" s="5">
@@ -1686,39 +1696,39 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="2">
         <v>1E-4</v>
       </c>
-      <c r="C52" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="12">
-        <v>50</v>
-      </c>
-      <c r="E52" s="12">
+      <c r="C52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2">
         <v>1350</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="2">
         <v>3.1</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="11">
         <v>1E-4</v>
       </c>
-      <c r="C53" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D53" s="13">
+      <c r="C53" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="11">
         <v>50</v>
       </c>
       <c r="E53" s="5">
@@ -1977,10 +1987,10 @@
       <c r="D65" s="7">
         <v>50</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="2">
         <v>450</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="2">
         <v>4.59</v>
       </c>
       <c r="G65" s="2"/>
@@ -1999,10 +2009,10 @@
       <c r="D66" s="2">
         <v>25</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="2">
         <v>525</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="2">
         <v>0.97</v>
       </c>
       <c r="G66" s="2"/>
@@ -2030,23 +2040,23 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="2">
         <v>1E-4</v>
       </c>
-      <c r="C68" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D68" s="12">
-        <v>50</v>
-      </c>
-      <c r="E68" s="12">
+      <c r="C68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="2">
+        <v>50</v>
+      </c>
+      <c r="E68" s="2">
         <v>1000</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="2">
         <v>1.86</v>
       </c>
     </row>
@@ -2054,19 +2064,19 @@
       <c r="A69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="11">
         <v>1E-4</v>
       </c>
-      <c r="C69" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D69" s="13">
-        <v>50</v>
-      </c>
-      <c r="E69" s="15">
+      <c r="C69" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="11">
+        <v>50</v>
+      </c>
+      <c r="E69" s="5">
         <v>1000</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="5">
         <v>2.11</v>
       </c>
       <c r="G69" s="8" t="s">
@@ -2276,23 +2286,23 @@
         <v>18.22</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C80" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D80" s="12">
-        <v>50</v>
-      </c>
-      <c r="E80" s="12">
+      <c r="B80" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>50</v>
+      </c>
+      <c r="E80" s="2">
         <v>200</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="2">
         <v>16.21</v>
       </c>
     </row>
@@ -2552,10 +2562,10 @@
       <c r="D93" s="3">
         <v>50</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="2">
         <v>350</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F93" s="2">
         <v>7.98</v>
       </c>
     </row>
@@ -2572,10 +2582,10 @@
       <c r="D94" s="2">
         <v>25</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="2">
         <v>525</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F94" s="2">
         <v>4.92</v>
       </c>
     </row>
@@ -2592,10 +2602,10 @@
       <c r="D95" s="2">
         <v>25</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="2">
         <v>500</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="2">
         <v>5.88</v>
       </c>
     </row>
@@ -2612,10 +2622,10 @@
       <c r="D96" s="2">
         <v>50</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E96" s="2">
         <v>800</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F96" s="2">
         <v>7.25</v>
       </c>
     </row>
@@ -2720,6 +2730,2082 @@
       </c>
       <c r="G101" s="8" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5797D8DD-D8A1-6445-A26A-2553F2E5D950}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>125</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10.79</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>400</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.29</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>150</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>650</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10.88</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>250</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.28</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9.18</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>725</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7.36</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1350</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11.26</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <v>750</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7.57</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>950</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20.41</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="10">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F21" s="5">
+        <v>35.25</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="2">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="14">
+        <v>50</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="3">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2">
+        <v>425</v>
+      </c>
+      <c r="F30" s="2">
+        <v>7.61</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2">
+        <v>650</v>
+      </c>
+      <c r="F32" s="2">
+        <v>11.16</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="3">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="5">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1050</v>
+      </c>
+      <c r="F34" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="2">
+        <v>25</v>
+      </c>
+      <c r="E35" s="2">
+        <v>375</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="13">
+        <v>50</v>
+      </c>
+      <c r="E36" s="13">
+        <v>750</v>
+      </c>
+      <c r="F36" s="13">
+        <v>6.88</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="7">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>25</v>
+      </c>
+      <c r="E38" s="2">
+        <v>175</v>
+      </c>
+      <c r="F38" s="2">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="2">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2">
+        <v>250</v>
+      </c>
+      <c r="F40" s="2">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="3">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="5">
+        <v>25</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1525</v>
+      </c>
+      <c r="F42" s="5">
+        <v>22.06</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="2">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>575</v>
+      </c>
+      <c r="F43" s="2">
+        <v>15.32</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2">
+        <v>950</v>
+      </c>
+      <c r="F44" s="2">
+        <v>16.32</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="3">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2">
+        <v>550</v>
+      </c>
+      <c r="F45" s="2">
+        <v>14.64</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="2">
+        <v>25</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="7">
+        <v>50</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>25</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="2">
+        <v>25</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="11">
+        <v>50</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="2">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="2">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="3">
+        <v>50</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="2">
+        <v>25</v>
+      </c>
+      <c r="E58" s="2">
+        <v>625</v>
+      </c>
+      <c r="F58" s="2">
+        <v>11.98</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="2">
+        <v>25</v>
+      </c>
+      <c r="E59" s="9">
+        <v>275</v>
+      </c>
+      <c r="F59" s="9">
+        <v>7.85</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>50</v>
+      </c>
+      <c r="E60" s="9">
+        <v>350</v>
+      </c>
+      <c r="F60" s="9">
+        <v>7.32</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="3">
+        <v>50</v>
+      </c>
+      <c r="E61" s="9">
+        <v>400</v>
+      </c>
+      <c r="F61" s="9">
+        <v>10.71</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="2">
+        <v>25</v>
+      </c>
+      <c r="E62" s="2">
+        <v>825</v>
+      </c>
+      <c r="F62" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="2">
+        <v>25</v>
+      </c>
+      <c r="E63" s="2">
+        <v>250</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>50</v>
+      </c>
+      <c r="E64" s="9">
+        <v>950</v>
+      </c>
+      <c r="F64" s="9">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="7">
+        <v>50</v>
+      </c>
+      <c r="E65" s="2">
+        <v>550</v>
+      </c>
+      <c r="F65" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>25</v>
+      </c>
+      <c r="E66" s="2">
+        <v>900</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="2">
+        <v>25</v>
+      </c>
+      <c r="E67" s="2">
+        <v>550</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="5">
+        <v>50</v>
+      </c>
+      <c r="E68" s="5">
+        <v>3550</v>
+      </c>
+      <c r="F68" s="5">
+        <v>7.54</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="14">
+        <v>50</v>
+      </c>
+      <c r="E69" s="13">
+        <v>1800</v>
+      </c>
+      <c r="F69" s="13">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="2">
+        <v>25</v>
+      </c>
+      <c r="E70" s="2">
+        <v>275</v>
+      </c>
+      <c r="F70" s="2">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="2">
+        <v>25</v>
+      </c>
+      <c r="E71" s="2">
+        <v>200</v>
+      </c>
+      <c r="F71" s="2">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="2">
+        <v>50</v>
+      </c>
+      <c r="E72" s="2">
+        <v>400</v>
+      </c>
+      <c r="F72" s="2">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="3">
+        <v>50</v>
+      </c>
+      <c r="E73" s="2">
+        <v>300</v>
+      </c>
+      <c r="F73" s="2">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C74" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="13">
+        <v>25</v>
+      </c>
+      <c r="E74" s="13">
+        <v>1825</v>
+      </c>
+      <c r="F74" s="13">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="2">
+        <v>25</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F75" s="2">
+        <v>24.07</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="5">
+        <v>50</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2150</v>
+      </c>
+      <c r="F76" s="5">
+        <v>27.12</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="3">
+        <v>50</v>
+      </c>
+      <c r="E77" s="2">
+        <v>900</v>
+      </c>
+      <c r="F77" s="2">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="2">
+        <v>25</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D79" s="2">
+        <v>25</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>50</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D81" s="3">
+        <v>50</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="2">
+        <v>25</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D83" s="2">
+        <v>25</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D85" s="3">
+        <v>50</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D87" s="2">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>50</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D89" s="3">
+        <v>50</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>25</v>
+      </c>
+      <c r="E90" s="2">
+        <v>350</v>
+      </c>
+      <c r="F90" s="2">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D91" s="2">
+        <v>25</v>
+      </c>
+      <c r="E91" s="2">
+        <v>425</v>
+      </c>
+      <c r="F91" s="2">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D92" s="2">
+        <v>50</v>
+      </c>
+      <c r="E92" s="2">
+        <v>450</v>
+      </c>
+      <c r="F92" s="2">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D93" s="3">
+        <v>50</v>
+      </c>
+      <c r="E93" s="2">
+        <v>300</v>
+      </c>
+      <c r="F93" s="2">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="2">
+        <v>25</v>
+      </c>
+      <c r="E94" s="2">
+        <v>775</v>
+      </c>
+      <c r="F94" s="2">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D95" s="2">
+        <v>25</v>
+      </c>
+      <c r="E95" s="2">
+        <v>200</v>
+      </c>
+      <c r="F95" s="2">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>50</v>
+      </c>
+      <c r="E96" s="2">
+        <v>950</v>
+      </c>
+      <c r="F96" s="2">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C97" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D97" s="7">
+        <v>50</v>
+      </c>
+      <c r="E97" s="2">
+        <v>650</v>
+      </c>
+      <c r="F97" s="2">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="2">
+        <v>25</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1275</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D99" s="2">
+        <v>25</v>
+      </c>
+      <c r="E99" s="2">
+        <v>525</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D100" s="5">
+        <v>50</v>
+      </c>
+      <c r="E100" s="5">
+        <v>3900</v>
+      </c>
+      <c r="F100" s="5">
+        <v>7.64</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C101" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D101" s="15">
+        <v>50</v>
+      </c>
+      <c r="E101" s="13">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="13">
+        <v>3.22</v>
       </c>
     </row>
   </sheetData>

--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/IDE.Traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaworthy/Documents/GitHub/IDE.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8387A928-892B-7B4B-A2C2-1CC6EAFF9481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A0FB89-6093-9249-B038-1BE52B531959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19740" yWindow="500" windowWidth="10000" windowHeight="16460" activeTab="1" xr2:uid="{CA5785D0-BBB7-1147-9F58-8D49B884B13F}"/>
+    <workbookView xWindow="-560" yWindow="500" windowWidth="10040" windowHeight="16460" activeTab="2" xr2:uid="{CA5785D0-BBB7-1147-9F58-8D49B884B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="impute" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="26">
   <si>
     <t>model</t>
   </si>
@@ -151,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +168,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -232,12 +245,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2741,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5797D8DD-D8A1-6445-A26A-2553F2E5D950}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3262,21 +3293,21 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D25" s="14">
-        <v>50</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="B25" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="7">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -3502,22 +3533,22 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C36" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="13">
-        <v>50</v>
-      </c>
-      <c r="E36" s="13">
+      <c r="B36" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2">
         <v>750</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="2">
         <v>6.88</v>
       </c>
       <c r="H36" s="2"/>
@@ -4182,22 +4213,22 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="7">
         <v>1E-4</v>
       </c>
-      <c r="C69" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D69" s="14">
-        <v>50</v>
-      </c>
-      <c r="E69" s="13">
+      <c r="C69" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="7">
+        <v>50</v>
+      </c>
+      <c r="E69" s="2">
         <v>1800</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="2">
         <v>5.4</v>
       </c>
     </row>
@@ -4282,22 +4313,22 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
+      <c r="A74" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C74" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D74" s="13">
-        <v>25</v>
-      </c>
-      <c r="E74" s="13">
+      <c r="B74" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="2">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2">
         <v>1825</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="2">
         <v>24.69</v>
       </c>
     </row>
@@ -4789,23 +4820,2600 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="15">
+      <c r="B101" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C101" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="D101" s="15">
-        <v>50</v>
-      </c>
-      <c r="E101" s="13">
+      <c r="C101" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D101" s="3">
+        <v>50</v>
+      </c>
+      <c r="E101" s="2">
         <v>1000</v>
       </c>
-      <c r="F101" s="13">
+      <c r="F101" s="2">
         <v>3.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D83041D-322D-B44C-9C69-61B4B3BE9AC6}">
+  <dimension ref="A1:G129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>500</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>575</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>500</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>350</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>825</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="13">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13">
+        <v>925</v>
+      </c>
+      <c r="F11" s="13">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <v>900</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8.09</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <v>600</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2">
+        <v>525</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="13">
+        <v>25</v>
+      </c>
+      <c r="E15" s="13">
+        <v>525</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="13">
+        <v>50</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="22">
+        <v>50</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="20">
+        <v>2.83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="3">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2">
+        <v>150</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="2">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2">
+        <v>225</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8.48</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="17">
+        <v>50</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>50</v>
+      </c>
+      <c r="E28" s="13">
+        <v>500</v>
+      </c>
+      <c r="F28" s="13">
+        <v>6.06</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="7">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2">
+        <v>250</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2">
+        <v>525</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25</v>
+      </c>
+      <c r="E31" s="13">
+        <v>500</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="15">
+        <v>50</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2.63</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="7">
+        <v>50</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>25</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="2">
+        <v>25</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="13">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="13">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2">
+        <v>800</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="7">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="7">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>25</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="2">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="3">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2">
+        <v>275</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="2">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>275</v>
+      </c>
+      <c r="F43" s="2">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2">
+        <v>250</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="3">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2">
+        <v>250</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="13">
+        <v>25</v>
+      </c>
+      <c r="E46" s="13">
+        <v>425</v>
+      </c>
+      <c r="F46" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="2">
+        <v>25</v>
+      </c>
+      <c r="E47" s="2">
+        <v>650</v>
+      </c>
+      <c r="F47" s="2">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2">
+        <v>800</v>
+      </c>
+      <c r="F48" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="7">
+        <v>50</v>
+      </c>
+      <c r="E49" s="2">
+        <v>550</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="12" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="13">
+        <v>25</v>
+      </c>
+      <c r="E50" s="13">
+        <v>525</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="2">
+        <v>25</v>
+      </c>
+      <c r="E51" s="2">
+        <v>525</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="C53" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="16">
+        <v>50</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1150</v>
+      </c>
+      <c r="F53" s="15">
+        <v>3.82</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="2">
+        <v>25</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="2">
+        <v>25</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>50</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="3">
+        <v>50</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="13">
+        <v>25</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="2">
+        <v>25</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>50</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="3">
+        <v>50</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="2">
+        <v>25</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="2">
+        <v>25</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>50</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="7">
+        <v>50</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>25</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="2">
+        <v>25</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="2">
+        <v>50</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="C69" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="18">
+        <v>50</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="2">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="2">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="2">
+        <v>50</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="3">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="2">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2">
+        <v>575</v>
+      </c>
+      <c r="F74" s="2">
+        <v>13.76</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="2">
+        <v>25</v>
+      </c>
+      <c r="E75" s="9">
+        <v>600</v>
+      </c>
+      <c r="F75" s="9">
+        <v>17.25</v>
+      </c>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C76" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="13">
+        <v>50</v>
+      </c>
+      <c r="E76" s="23">
+        <v>700</v>
+      </c>
+      <c r="F76" s="23">
+        <v>16.04</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="3">
+        <v>50</v>
+      </c>
+      <c r="E77" s="9">
+        <v>600</v>
+      </c>
+      <c r="F77" s="9">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="2">
+        <v>25</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F78" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D79" s="2">
+        <v>25</v>
+      </c>
+      <c r="E79" s="2">
+        <v>650</v>
+      </c>
+      <c r="F79" s="2">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>50</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1300</v>
+      </c>
+      <c r="F80" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C81" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D81" s="22">
+        <v>50</v>
+      </c>
+      <c r="E81" s="20">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="20">
+        <v>17.27</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="2">
+        <v>25</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D83" s="2">
+        <v>25</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C84" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="13">
+        <v>50</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D85" s="7">
+        <v>50</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>25</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D87" s="2">
+        <v>25</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>50</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D89" s="3">
+        <v>50</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>25</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D91" s="2">
+        <v>25</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C92" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D92" s="13">
+        <v>50</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D93" s="3">
+        <v>50</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="2">
+        <v>25</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D95" s="2">
+        <v>25</v>
+      </c>
+      <c r="E95" s="2">
+        <v>550</v>
+      </c>
+      <c r="F95" s="2">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C96" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="13">
+        <v>50</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D97" s="3">
+        <v>50</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="2">
+        <v>25</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D99" s="2">
+        <v>25</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C100" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D100" s="15">
+        <v>50</v>
+      </c>
+      <c r="E100" s="15">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="15">
+        <v>3.04</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D101" s="3">
+        <v>50</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D102" s="2">
+        <v>25</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D103" s="2">
+        <v>25</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="2">
+        <v>50</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D105" s="3">
+        <v>50</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D106" s="2">
+        <v>25</v>
+      </c>
+      <c r="E106" s="2">
+        <v>600</v>
+      </c>
+      <c r="F106" s="2">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D107" s="2">
+        <v>25</v>
+      </c>
+      <c r="E107" s="2">
+        <v>250</v>
+      </c>
+      <c r="F107" s="2">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C108" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D108" s="13">
+        <v>50</v>
+      </c>
+      <c r="E108" s="13">
+        <v>500</v>
+      </c>
+      <c r="F108" s="13">
+        <v>10.95</v>
+      </c>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D109" s="3">
+        <v>50</v>
+      </c>
+      <c r="E109" s="2">
+        <v>350</v>
+      </c>
+      <c r="F109" s="2">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D110" s="2">
+        <v>25</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F110" s="2">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="20">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C111" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="D111" s="20">
+        <v>25</v>
+      </c>
+      <c r="E111" s="20">
+        <v>1200</v>
+      </c>
+      <c r="F111" s="20">
+        <v>19.79</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C112" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D112" s="13">
+        <v>50</v>
+      </c>
+      <c r="E112" s="13">
+        <v>1850</v>
+      </c>
+      <c r="F112" s="13">
+        <v>17.64</v>
+      </c>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D113" s="3">
+        <v>50</v>
+      </c>
+      <c r="E113" s="2">
+        <v>500</v>
+      </c>
+      <c r="F113" s="2">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D114" s="2">
+        <v>25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D115" s="2">
+        <v>25</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D116" s="2">
+        <v>50</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D117" s="3">
+        <v>50</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D118" s="2">
+        <v>25</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D119" s="2">
+        <v>25</v>
+      </c>
+      <c r="E119" s="2">
+        <v>350</v>
+      </c>
+      <c r="F119" s="2">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D120" s="2">
+        <v>50</v>
+      </c>
+      <c r="E120" s="2">
+        <v>300</v>
+      </c>
+      <c r="F120" s="2">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D121" s="3">
+        <v>50</v>
+      </c>
+      <c r="E121" s="2">
+        <v>400</v>
+      </c>
+      <c r="F121" s="2">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D122" s="2">
+        <v>25</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D123" s="2">
+        <v>25</v>
+      </c>
+      <c r="E123" s="2">
+        <v>575</v>
+      </c>
+      <c r="F123" s="2">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D124" s="2">
+        <v>50</v>
+      </c>
+      <c r="E124" s="2">
+        <v>200</v>
+      </c>
+      <c r="F124" s="2">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C125" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D125" s="7">
+        <v>50</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D126" s="2">
+        <v>25</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D127" s="2">
+        <v>25</v>
+      </c>
+      <c r="E127" s="2">
+        <v>525</v>
+      </c>
+      <c r="F127" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C128" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D128" s="13">
+        <v>50</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="C129" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="D129" s="21">
+        <v>50</v>
+      </c>
+      <c r="E129" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F129" s="20">
+        <v>3.75</v>
+      </c>
+      <c r="G129" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaworthy/Documents/GitHub/IDE.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A0FB89-6093-9249-B038-1BE52B531959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C6A34F-EAFF-374C-93A5-3E6265660F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-560" yWindow="500" windowWidth="10040" windowHeight="16460" activeTab="2" xr2:uid="{CA5785D0-BBB7-1147-9F58-8D49B884B13F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10040" windowHeight="16460" activeTab="3" xr2:uid="{CA5785D0-BBB7-1147-9F58-8D49B884B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="impute" sheetId="3" r:id="rId3"/>
+    <sheet name="impute.NW" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="27">
   <si>
     <t>model</t>
   </si>
@@ -116,6 +117,9 @@
   </si>
   <si>
     <t>tc = 1</t>
+  </si>
+  <si>
+    <t>tc=4</t>
   </si>
 </sst>
 </file>
@@ -214,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -241,21 +245,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -268,7 +262,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4848,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D83041D-322D-B44C-9C69-61B4B3BE9AC6}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4901,7 +4898,7 @@
       <c r="B3" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="2">
         <v>0.75</v>
       </c>
       <c r="D3" s="2">
@@ -5055,36 +5052,36 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="13">
-        <v>25</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="B11" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
         <v>925</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="2">
         <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="B12" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="2">
         <v>50</v>
       </c>
       <c r="E12" s="2">
@@ -5136,63 +5133,63 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="2">
         <v>1E-4</v>
       </c>
-      <c r="C15" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="13">
-        <v>25</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="C15" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2">
         <v>525</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="2">
         <v>1.19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="2">
         <v>1E-4</v>
       </c>
-      <c r="C16" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="13">
-        <v>50</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="C16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2">
         <v>1000</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="2">
         <v>2.0099999999999998</v>
       </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="18">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="22">
-        <v>50</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="C17" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="18">
+        <v>50</v>
+      </c>
+      <c r="E17" s="16">
         <v>1300</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="16">
         <v>2.83</v>
       </c>
       <c r="G17" t="s">
@@ -5343,22 +5340,22 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="D25" s="17">
-        <v>50</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="B25" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="3">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5375,10 +5372,10 @@
       <c r="D26" s="2">
         <v>25</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="2"/>
@@ -5396,10 +5393,10 @@
       <c r="D27" s="2">
         <v>25</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="2"/>
@@ -5417,10 +5414,10 @@
       <c r="D28" s="2">
         <v>50</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="2">
         <v>500</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="2">
         <v>6.06</v>
       </c>
       <c r="G28" s="2"/>
@@ -5480,34 +5477,34 @@
       <c r="D31" s="2">
         <v>25</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="2">
         <v>500</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="2">
         <v>2.02</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="13">
         <v>1E-4</v>
       </c>
-      <c r="C32" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="15">
-        <v>50</v>
-      </c>
-      <c r="E32" s="13">
+      <c r="C32" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="13">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2">
         <v>1000</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="2">
         <v>2.63</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5524,10 +5521,10 @@
       <c r="D33" s="7">
         <v>50</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="2"/>
@@ -5575,16 +5572,16 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C36" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="13">
+      <c r="C36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="2">
         <v>50</v>
       </c>
       <c r="E36" s="2">
@@ -5777,25 +5774,24 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C46" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D46" s="13">
-        <v>25</v>
-      </c>
-      <c r="E46" s="13">
+      <c r="B46" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25</v>
+      </c>
+      <c r="E46" s="2">
         <v>425</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="2">
         <v>4.7</v>
       </c>
-      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -5857,23 +5853,23 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="12" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="2">
         <v>1E-4</v>
       </c>
-      <c r="C50" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="13">
-        <v>25</v>
-      </c>
-      <c r="E50" s="13">
+      <c r="C50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>25</v>
+      </c>
+      <c r="E50" s="2">
         <v>525</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="2">
         <v>1.23</v>
       </c>
     </row>
@@ -5918,22 +5914,22 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="14">
         <v>1E-4</v>
       </c>
-      <c r="C53" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D53" s="16">
-        <v>50</v>
-      </c>
-      <c r="E53" s="15">
+      <c r="C53" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="14">
+        <v>50</v>
+      </c>
+      <c r="E53" s="13">
         <v>1150</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="13">
         <v>3.82</v>
       </c>
       <c r="G53" t="s">
@@ -6005,21 +6001,21 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C58" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D58" s="13">
-        <v>25</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="B58" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="2">
+        <v>25</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -6192,20 +6188,20 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="7">
         <v>1E-4</v>
       </c>
-      <c r="C69" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="D69" s="18">
-        <v>50</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+      <c r="C69" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="7">
+        <v>50</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -6330,22 +6326,22 @@
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
+      <c r="A76" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C76" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D76" s="13">
-        <v>50</v>
-      </c>
-      <c r="E76" s="23">
+      <c r="B76" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>50</v>
+      </c>
+      <c r="E76" s="9">
         <v>700</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="9">
         <v>16.04</v>
       </c>
       <c r="G76" s="2"/>
@@ -6434,22 +6430,22 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="22">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C81" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="D81" s="22">
-        <v>50</v>
-      </c>
-      <c r="E81" s="20">
+      <c r="B81" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C81" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D81" s="18">
+        <v>50</v>
+      </c>
+      <c r="E81" s="16">
         <v>1200</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="16">
         <v>17.27</v>
       </c>
       <c r="G81" s="2" t="s">
@@ -6491,21 +6487,20 @@
       <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
+      <c r="A84" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="2">
         <v>1E-4</v>
       </c>
-      <c r="C84" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D84" s="13">
-        <v>50</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="12"/>
+      <c r="C84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="2">
+        <v>50</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -6644,16 +6639,16 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+      <c r="A92" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C92" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D92" s="13">
+      <c r="B92" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D92" s="2">
         <v>50</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -6662,7 +6657,6 @@
       <c r="F92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="12"/>
     </row>
     <row r="93" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -6725,16 +6719,16 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+      <c r="A96" t="s">
         <v>14</v>
       </c>
       <c r="B96" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C96" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D96" s="13">
+      <c r="C96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="2">
         <v>50</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -6805,22 +6799,22 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="15">
+      <c r="B100" s="13">
         <v>1E-4</v>
       </c>
-      <c r="C100" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D100" s="15">
-        <v>50</v>
-      </c>
-      <c r="E100" s="15">
+      <c r="C100" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D100" s="13">
+        <v>50</v>
+      </c>
+      <c r="E100" s="13">
         <v>1100</v>
       </c>
-      <c r="F100" s="15">
+      <c r="F100" s="13">
         <v>3.04</v>
       </c>
       <c r="G100" t="s">
@@ -6968,25 +6962,24 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+      <c r="A108" t="s">
         <v>15</v>
       </c>
-      <c r="B108" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C108" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D108" s="13">
-        <v>50</v>
-      </c>
-      <c r="E108" s="13">
+      <c r="B108" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D108" s="2">
+        <v>50</v>
+      </c>
+      <c r="E108" s="2">
         <v>500</v>
       </c>
-      <c r="F108" s="13">
+      <c r="F108" s="2">
         <v>10.95</v>
       </c>
-      <c r="G108" s="12"/>
     </row>
     <row r="109" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -7029,22 +7022,22 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="20">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C111" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="D111" s="20">
-        <v>25</v>
-      </c>
-      <c r="E111" s="20">
+      <c r="B111" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C111" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D111" s="16">
+        <v>25</v>
+      </c>
+      <c r="E111" s="16">
         <v>1200</v>
       </c>
-      <c r="F111" s="20">
+      <c r="F111" s="16">
         <v>19.79</v>
       </c>
       <c r="G111" t="s">
@@ -7052,27 +7045,26 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
+      <c r="A112" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C112" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D112" s="13">
-        <v>50</v>
-      </c>
-      <c r="E112" s="13">
+      <c r="B112" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D112" s="2">
+        <v>50</v>
+      </c>
+      <c r="E112" s="2">
         <v>1850</v>
       </c>
-      <c r="F112" s="13">
+      <c r="F112" s="2">
         <v>17.64</v>
       </c>
-      <c r="G112" s="12"/>
-    </row>
-    <row r="113" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -7092,7 +7084,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -7112,7 +7104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -7132,7 +7124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -7152,7 +7144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -7172,7 +7164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -7192,7 +7184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -7212,7 +7204,7 @@
         <v>11.77</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -7232,7 +7224,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -7252,7 +7244,7 @@
         <v>13.34</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -7272,7 +7264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -7292,7 +7284,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -7312,7 +7304,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -7332,7 +7324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -7352,7 +7344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -7372,50 +7364,2293 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="12" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>16</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B128" s="2">
         <v>1E-4</v>
       </c>
-      <c r="C128" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D128" s="13">
-        <v>50</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G128" s="12"/>
+      <c r="C128" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D128" s="2">
+        <v>50</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="129" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="21">
+      <c r="B129" s="17">
         <v>1E-4</v>
       </c>
-      <c r="C129" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="D129" s="21">
-        <v>50</v>
-      </c>
-      <c r="E129" s="20">
+      <c r="C129" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D129" s="17">
+        <v>50</v>
+      </c>
+      <c r="E129" s="16">
         <v>1000</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="16">
         <v>3.75</v>
       </c>
       <c r="G129" t="s">
         <v>18</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E132E08F-730F-744A-8651-0CDA2B7DAB24}">
+  <dimension ref="A1:G110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>650</v>
+      </c>
+      <c r="F6" s="2">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>450</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>800</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>500</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>700</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="16">
+        <v>50</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="16">
+        <v>12.08</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <v>850</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2">
+        <v>200</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="3">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="2">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="7">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2">
+        <v>525</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="13">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="7">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6.58</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="3">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>25</v>
+      </c>
+      <c r="E34" s="2">
+        <v>525</v>
+      </c>
+      <c r="F34" s="2">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="2">
+        <v>25</v>
+      </c>
+      <c r="E35" s="2">
+        <v>475</v>
+      </c>
+      <c r="F35" s="2">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2">
+        <v>400</v>
+      </c>
+      <c r="F36" s="2">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="3">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2">
+        <v>550</v>
+      </c>
+      <c r="F37" s="2">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>25</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F38" s="2">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="2">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2">
+        <v>875</v>
+      </c>
+      <c r="F39" s="2">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2">
+        <v>850</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="18">
+        <v>50</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1100</v>
+      </c>
+      <c r="F41" s="16">
+        <v>14.23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="2">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="3">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="2">
+        <v>25</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="3">
+        <v>50</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>25</v>
+      </c>
+      <c r="E50" s="2">
+        <v>125</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="2">
+        <v>25</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="7">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="2">
+        <v>25</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="2">
+        <v>25</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>50</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="7">
+        <v>50</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="2">
+        <v>25</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="2">
+        <v>25</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>50</v>
+      </c>
+      <c r="E60" s="2">
+        <v>200</v>
+      </c>
+      <c r="F60" s="2">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="3">
+        <v>50</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="2">
+        <v>25</v>
+      </c>
+      <c r="E62" s="2">
+        <v>475</v>
+      </c>
+      <c r="F62" s="2">
+        <v>12.12</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="2">
+        <v>25</v>
+      </c>
+      <c r="E63" s="9">
+        <v>700</v>
+      </c>
+      <c r="F63" s="9">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>50</v>
+      </c>
+      <c r="E64" s="9">
+        <v>950</v>
+      </c>
+      <c r="F64" s="9">
+        <v>20.71</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="3">
+        <v>50</v>
+      </c>
+      <c r="E65" s="9">
+        <v>450</v>
+      </c>
+      <c r="F65" s="9">
+        <v>13.89</v>
+      </c>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>25</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1375</v>
+      </c>
+      <c r="F66" s="2">
+        <v>16.27</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="2">
+        <v>25</v>
+      </c>
+      <c r="E67" s="2">
+        <v>650</v>
+      </c>
+      <c r="F67" s="2">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="2">
+        <v>50</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1150</v>
+      </c>
+      <c r="F68" s="9">
+        <v>14.07</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C69" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="18">
+        <v>50</v>
+      </c>
+      <c r="E69" s="16">
+        <v>1350</v>
+      </c>
+      <c r="F69" s="16">
+        <v>19.32</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="2">
+        <v>25</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="2">
+        <v>25</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="2">
+        <v>50</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="3">
+        <v>50</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="2">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2">
+        <v>250</v>
+      </c>
+      <c r="F74" s="2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="2">
+        <v>25</v>
+      </c>
+      <c r="E75" s="2">
+        <v>225</v>
+      </c>
+      <c r="F75" s="2">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>50</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="3">
+        <v>50</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="2">
+        <v>25</v>
+      </c>
+      <c r="E78" s="2">
+        <v>675</v>
+      </c>
+      <c r="F78" s="2">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D79" s="2">
+        <v>25</v>
+      </c>
+      <c r="E79" s="2">
+        <v>200</v>
+      </c>
+      <c r="F79" s="2">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>50</v>
+      </c>
+      <c r="E80" s="2">
+        <v>900</v>
+      </c>
+      <c r="F80" s="2">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D81" s="3">
+        <v>50</v>
+      </c>
+      <c r="E81" s="2">
+        <v>300</v>
+      </c>
+      <c r="F81" s="2">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="2">
+        <v>25</v>
+      </c>
+      <c r="E82" s="2">
+        <v>525</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D83" s="2">
+        <v>25</v>
+      </c>
+      <c r="E83" s="2">
+        <v>525</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C84" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="13">
+        <v>50</v>
+      </c>
+      <c r="E84" s="13">
+        <v>3400</v>
+      </c>
+      <c r="F84" s="13">
+        <v>9.01</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D85" s="3">
+        <v>50</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1650</v>
+      </c>
+      <c r="F85" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>25</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D87" s="2">
+        <v>25</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>50</v>
+      </c>
+      <c r="E88" s="2">
+        <v>200</v>
+      </c>
+      <c r="F88" s="2">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D89" s="3">
+        <v>50</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>25</v>
+      </c>
+      <c r="E90" s="2">
+        <v>725</v>
+      </c>
+      <c r="F90" s="2">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D91" s="2">
+        <v>25</v>
+      </c>
+      <c r="E91" s="2">
+        <v>550</v>
+      </c>
+      <c r="F91" s="2">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D92" s="2">
+        <v>50</v>
+      </c>
+      <c r="E92" s="2">
+        <v>850</v>
+      </c>
+      <c r="F92" s="2">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D93" s="3">
+        <v>50</v>
+      </c>
+      <c r="E93" s="2">
+        <v>400</v>
+      </c>
+      <c r="F93" s="2">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C94" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="16">
+        <v>25</v>
+      </c>
+      <c r="E94" s="16">
+        <v>1075</v>
+      </c>
+      <c r="F94" s="16">
+        <v>11.7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="20">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C95" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="D95" s="20">
+        <v>25</v>
+      </c>
+      <c r="E95" s="20">
+        <v>525</v>
+      </c>
+      <c r="F95" s="20">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>50</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F96" s="2">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D97" s="3">
+        <v>50</v>
+      </c>
+      <c r="E97" s="2">
+        <v>900</v>
+      </c>
+      <c r="F97" s="2">
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="2">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D99" s="2">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D100" s="2">
+        <v>50</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D101" s="3">
+        <v>50</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D102" s="2">
+        <v>25</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D103" s="2">
+        <v>25</v>
+      </c>
+      <c r="E103" s="2">
+        <v>450</v>
+      </c>
+      <c r="F103" s="2">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="2">
+        <v>50</v>
+      </c>
+      <c r="E104" s="2">
+        <v>650</v>
+      </c>
+      <c r="F104" s="2">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D105" s="3">
+        <v>50</v>
+      </c>
+      <c r="E105" s="2">
+        <v>300</v>
+      </c>
+      <c r="F105" s="2">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D106" s="2">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D107" s="2">
+        <v>25</v>
+      </c>
+      <c r="E107" s="2">
+        <v>725</v>
+      </c>
+      <c r="F107" s="2">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C108" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D108" s="16">
+        <v>50</v>
+      </c>
+      <c r="E108" s="16">
+        <v>1550</v>
+      </c>
+      <c r="F108" s="16">
+        <v>16.73</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C109" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D109" s="7">
+        <v>50</v>
+      </c>
+      <c r="E109" s="2">
+        <v>450</v>
+      </c>
+      <c r="F109" s="2">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
